--- a/data/outputs/management_altmetric/58.xlsx
+++ b/data/outputs/management_altmetric/58.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE53"/>
+  <dimension ref="A1:CF53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1025,6 +1030,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>28.5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1280,6 +1288,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1531,6 +1542,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1782,6 +1796,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2027,6 +2044,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2276,6 +2296,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2527,6 +2550,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2772,6 +2798,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3023,6 +3052,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3277,6 +3309,9 @@
       </c>
       <c r="CE11" t="n">
         <v>0</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>3.55</v>
       </c>
     </row>
     <row r="12">
@@ -3521,6 +3556,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3766,6 +3804,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4011,6 +4052,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4261,6 +4305,9 @@
       </c>
       <c r="CE15" t="n">
         <v>0</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="16">
@@ -4509,6 +4556,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4746,6 +4796,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4991,6 +5044,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5236,6 +5292,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5479,6 +5538,9 @@
         <v>0</v>
       </c>
       <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5702,6 +5764,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5980,6 +6045,9 @@
       </c>
       <c r="CE22" t="n">
         <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -6242,6 +6310,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6501,6 +6572,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6762,6 +6836,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7025,6 +7102,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7302,6 +7382,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7571,6 +7654,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7841,6 +7927,9 @@
       </c>
       <c r="CE29" t="n">
         <v>0</v>
+      </c>
+      <c r="CF29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -8059,6 +8148,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8276,6 +8368,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8517,6 +8612,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8770,6 +8868,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9013,6 +9114,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9266,6 +9370,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9513,6 +9620,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>6.05</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9767,6 +9877,9 @@
       </c>
       <c r="CE37" t="n">
         <v>0</v>
+      </c>
+      <c r="CF37" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="38">
@@ -10009,6 +10122,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10250,6 +10366,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10496,6 +10615,9 @@
       </c>
       <c r="CE40" t="n">
         <v>0</v>
+      </c>
+      <c r="CF40" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -10726,6 +10848,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10977,6 +11102,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>3.35</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11222,6 +11350,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11469,6 +11600,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11720,6 +11854,9 @@
         <v>0</v>
       </c>
       <c r="CE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11963,6 +12100,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12210,6 +12350,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>9.33</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12465,6 +12608,9 @@
         <v>0</v>
       </c>
       <c r="CE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12708,6 +12854,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12961,6 +13110,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13208,6 +13360,9 @@
         <v>0</v>
       </c>
       <c r="CE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13449,6 +13604,9 @@
         <v>0</v>
       </c>
       <c r="CE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13688,6 +13846,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
